--- a/data/men/M_2021_12_Memorial.xlsx
+++ b/data/men/M_2021_12_Memorial.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jzelenka\Documents\python_j\fencing\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jzelenka\Documents\python_j\fencing\data\men\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{078354C0-060C-4F30-84FC-5D1EF86F1FE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABAD16BD-7885-42E0-B476-B9BD881C7AB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12444" yWindow="420" windowWidth="21768" windowHeight="12096" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5280" yWindow="-14820" windowWidth="19668" windowHeight="12360" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="initiation" sheetId="5" r:id="rId1"/>
@@ -2675,7 +2675,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{386D87D5-D02E-4FB7-9149-051B0619C02A}">
   <dimension ref="A1:M84"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A68" workbookViewId="0">
       <selection activeCell="C81" sqref="C81"/>
     </sheetView>
   </sheetViews>
